--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -163,15 +163,15 @@
     <t>game</t>
   </si>
   <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
@@ -190,13 +190,13 @@
     <t>funny</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>wu</t>
@@ -2036,25 +2036,25 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.6866952789699571</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L33">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2062,25 +2062,25 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6818181818181818</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2088,25 +2088,25 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6777777777777778</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M35">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2273,22 +2273,22 @@
         <v>0.6</v>
       </c>
       <c r="L42">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2296,25 +2296,25 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.6</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2322,25 +2322,25 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5909090909090909</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="10:17">
